--- a/FileProfiler/data.xlsx
+++ b/FileProfiler/data.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>biography</t>
+          <t>character profile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The document discusses a fictional character, Rubeus Hagrid, from the Harry Potter series. It does not contain real personal data such as names, addresses, phone numbers, or other identifiable information about real individuals.</t>
+          <t>The document discusses fictional character Rubeus Hagrid and his role in the Harry Potter series. It includes details about his personality, backstory, and media portrayals, but no real personal data such as names, addresses, phone numbers, or other identifiers of actual individuals.</t>
         </is>
       </c>
     </row>

--- a/FileProfiler/data.xlsx
+++ b/FileProfiler/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +461,122 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>character profile</t>
+          <t>Report</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Urdu</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>The document contains general film data and industry information without any personal identifiers such as names, contact details, or IDs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>scientific text</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>English</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>The document discusses fictional character Rubeus Hagrid and his role in the Harry Potter series. It includes details about his personality, backstory, and media portrayals, but no real personal data such as names, addresses, phone numbers, or other identifiers of actual individuals.</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>The document does not contain personal information such as real names, email addresses, phone numbers, postal addresses, ID numbers, bank account details, license plates, usernames, or biometric data. It focuses on scientific explanations of photosynthesis systems and research applications without mentioning any individual's personal data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>The document discusses the song 'Por Ese Hombre', its musical background, chart performances, and related artists. It does not contain personal data such as names, addresses, phone numbers, or other sensitive information about individuals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>The document contains botanical information about Salix atrocinerea, including its distribution, ecology, and hybridization characteristics. It does not include any personal data such as names, addresses, contact information, or identifiers related to individuals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>The document describes a protein and its biological functions, references scientific databases like MeSH, but does not include personal data such as names, contact information, or identifiers of individuals.</t>
         </is>
       </c>
     </row>

--- a/FileProfiler/data.xlsx
+++ b/FileProfiler/data.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Report</t>
+          <t>list</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Urdu</t>
+          <t>English/Urdu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The document contains general film data and industry information without any personal identifiers such as names, contact details, or IDs.</t>
+          <t>The document contains general information about Pakistani films released in 2017, including titles and release dates, but does not include personal data such as names, addresses, phone numbers, emails, or other identifying information about individuals.</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>scientific text</t>
+          <t>Report</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The document does not contain personal information such as real names, email addresses, phone numbers, postal addresses, ID numbers, bank account details, license plates, usernames, or biometric data. It focuses on scientific explanations of photosynthesis systems and research applications without mentioning any individual's personal data.</t>
+          <t>The document contains no personal data such as names, email addresses, phone numbers, or identifiers of individuals. It references research institutions and studies but does not include any personally identifiable information.</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The document discusses the song 'Por Ese Hombre', its musical background, chart performances, and related artists. It does not contain personal data such as names, addresses, phone numbers, or other sensitive information about individuals.</t>
+          <t>The document discusses the song 'Por Ese Hombre', its musical composition, commercial performance on charts, and critical reception. It mentions names of artists and bands (e.g., Brenda K. Starr, Tito Nieves, Víctor Manuelle) which are public information related to the song's history. No personal data such as real person names beyond artists, email addresses, phone numbers, or other sensitive identifiers is present.</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The document contains botanical information about Salix atrocinerea, including its distribution, ecology, and hybridization characteristics. It does not include any personal data such as names, addresses, contact information, or identifiers related to individuals.</t>
+          <t>The document contains general botanical information about Salix atrocinerea, including its distribution, ecology, and references to public databases. No personal data such as names, addresses, contact details, or identifiers of individuals are present.</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The document describes a protein and its biological functions, references scientific databases like MeSH, but does not include personal data such as names, contact information, or identifiers of individuals.</t>
+          <t>The document discusses a protein kinase and its biological functions, interactions, and references. It does not contain any personal data such as names, contact information, or identifiers related to individuals.</t>
         </is>
       </c>
     </row>
